--- a/results/mp/tinybert/corona/confidence/84/topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,49 +40,28 @@
     <t>name</t>
   </si>
   <si>
-    <t>kills</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>chaos</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>warning</t>
   </si>
   <si>
     <t>panic</t>
@@ -91,139 +70,157 @@
     <t>emergency</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -581,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,10 +650,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -671,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -692,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -700,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -718,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -792,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.92</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8627450980392157</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.52</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8571428571428571</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7077922077922078</v>
+        <v>0.187984496124031</v>
       </c>
       <c r="C11">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D11">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>45</v>
+        <v>419</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8518518518518519</v>
+        <v>0.7890625</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8431372549019608</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1150,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6363636363636364</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.825</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,49 +1197,49 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5833333333333334</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>131</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L14">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>7</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L14">
-        <v>44</v>
-      </c>
-      <c r="M14">
-        <v>44</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1268,521 +1265,305 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L16">
+        <v>37</v>
+      </c>
+      <c r="M16">
+        <v>37</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L17">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="L18">
+        <v>86</v>
+      </c>
+      <c r="M18">
+        <v>86</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>0.7112676056338029</v>
+      </c>
+      <c r="L19">
+        <v>101</v>
+      </c>
+      <c r="M19">
+        <v>101</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>0.675</v>
+      </c>
+      <c r="L20">
+        <v>108</v>
+      </c>
+      <c r="M20">
+        <v>108</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>0.660377358490566</v>
+      </c>
+      <c r="L21">
+        <v>70</v>
+      </c>
+      <c r="M21">
+        <v>70</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22">
+        <v>0.625</v>
+      </c>
+      <c r="L22">
+        <v>30</v>
+      </c>
+      <c r="M22">
+        <v>30</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="L23">
+        <v>58</v>
+      </c>
+      <c r="M23">
+        <v>58</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K15">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L15">
-        <v>7</v>
-      </c>
-      <c r="M15">
-        <v>7</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.5</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>8</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="K24">
+        <v>0.6031746031746031</v>
+      </c>
+      <c r="L24">
+        <v>38</v>
+      </c>
+      <c r="M24">
+        <v>38</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K16">
-        <v>0.76</v>
-      </c>
-      <c r="L16">
-        <v>19</v>
-      </c>
-      <c r="M16">
-        <v>19</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
+      <c r="K25">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L25">
+        <v>28</v>
+      </c>
+      <c r="M25">
+        <v>28</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>13</v>
-      </c>
-      <c r="J17" s="1" t="s">
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K17">
-        <v>0.726027397260274</v>
-      </c>
-      <c r="L17">
-        <v>53</v>
-      </c>
-      <c r="M17">
-        <v>53</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3562231759656652</v>
-      </c>
-      <c r="C18">
-        <v>83</v>
-      </c>
-      <c r="D18">
-        <v>83</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>150</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18">
-        <v>0.7068965517241379</v>
-      </c>
-      <c r="L18">
-        <v>41</v>
-      </c>
-      <c r="M18">
-        <v>41</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>20</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L19">
-        <v>12</v>
-      </c>
-      <c r="M19">
-        <v>12</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2368421052631579</v>
-      </c>
-      <c r="C20">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>29</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L20">
-        <v>12</v>
-      </c>
-      <c r="M20">
-        <v>12</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="C21">
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>68</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L21">
-        <v>9</v>
-      </c>
-      <c r="M21">
-        <v>9</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.15</v>
-      </c>
-      <c r="C22">
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>12</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>68</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L22">
-        <v>18</v>
-      </c>
-      <c r="M22">
-        <v>18</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.1181818181818182</v>
-      </c>
-      <c r="C23">
-        <v>13</v>
-      </c>
-      <c r="D23">
-        <v>13</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>97</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L23">
-        <v>27</v>
-      </c>
-      <c r="M23">
-        <v>27</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C24">
+      <c r="K26">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L26">
         <v>15</v>
       </c>
-      <c r="D24">
+      <c r="M26">
         <v>15</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>120</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="L24">
-        <v>20</v>
-      </c>
-      <c r="M24">
-        <v>20</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25">
-        <v>0.64</v>
-      </c>
-      <c r="L25">
-        <v>16</v>
-      </c>
-      <c r="M25">
-        <v>16</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K26">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L26">
-        <v>21</v>
-      </c>
-      <c r="M26">
-        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1797,18 +1578,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.5833333333333334</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L27">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1820,21 +1601,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.5789473684210527</v>
+        <v>0.4986945169712794</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="M28">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1846,74 +1627,74 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.5416666666666666</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L29">
+        <v>161</v>
+      </c>
+      <c r="M29">
+        <v>161</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="L30">
+        <v>16</v>
+      </c>
+      <c r="M30">
+        <v>16</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L31">
         <v>13</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>13</v>
       </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K30">
-        <v>0.539906103286385</v>
-      </c>
-      <c r="L30">
-        <v>115</v>
-      </c>
-      <c r="M30">
-        <v>115</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K31">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="L31">
-        <v>16</v>
-      </c>
-      <c r="M31">
-        <v>16</v>
-      </c>
       <c r="N31">
         <v>1</v>
       </c>
@@ -1924,21 +1705,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.5069444444444444</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L32">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1950,21 +1731,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.4806201550387597</v>
+        <v>0.3966101694915254</v>
       </c>
       <c r="L33">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="M33">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1976,21 +1757,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>67</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.4642857142857143</v>
+        <v>0.359375</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2002,21 +1783,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.4</v>
+        <v>0.3347280334728033</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2028,21 +1809,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.4</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2054,21 +1835,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.3714285714285714</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2080,47 +1861,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.3478260869565217</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="L38">
+        <v>13</v>
+      </c>
+      <c r="M38">
+        <v>13</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>32</v>
-      </c>
-      <c r="M38">
-        <v>32</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>60</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.3181818181818182</v>
+        <v>0.2769230769230769</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2132,21 +1913,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.2368421052631579</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="L40">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2158,21 +1939,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.01973684210526316</v>
+        <v>0.02333333333333333</v>
       </c>
       <c r="L41">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2184,7 +1965,215 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>447</v>
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K42">
+        <v>0.02013422818791946</v>
+      </c>
+      <c r="L42">
+        <v>18</v>
+      </c>
+      <c r="M42">
+        <v>18</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K43">
+        <v>0.008985398727068513</v>
+      </c>
+      <c r="L43">
+        <v>24</v>
+      </c>
+      <c r="M43">
+        <v>26</v>
+      </c>
+      <c r="N43">
+        <v>0.92</v>
+      </c>
+      <c r="O43">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44">
+        <v>0.006071929005137786</v>
+      </c>
+      <c r="L44">
+        <v>13</v>
+      </c>
+      <c r="M44">
+        <v>15</v>
+      </c>
+      <c r="N44">
+        <v>0.87</v>
+      </c>
+      <c r="O44">
+        <v>0.13</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K45">
+        <v>0.005793369810106212</v>
+      </c>
+      <c r="L45">
+        <v>18</v>
+      </c>
+      <c r="M45">
+        <v>18</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K46">
+        <v>0.005321326238231682</v>
+      </c>
+      <c r="L46">
+        <v>13</v>
+      </c>
+      <c r="M46">
+        <v>15</v>
+      </c>
+      <c r="N46">
+        <v>0.87</v>
+      </c>
+      <c r="O46">
+        <v>0.13</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47">
+        <v>0.005204163330664532</v>
+      </c>
+      <c r="L47">
+        <v>26</v>
+      </c>
+      <c r="M47">
+        <v>26</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K48">
+        <v>0.004623208506703652</v>
+      </c>
+      <c r="L48">
+        <v>20</v>
+      </c>
+      <c r="M48">
+        <v>22</v>
+      </c>
+      <c r="N48">
+        <v>0.91</v>
+      </c>
+      <c r="O48">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K49">
+        <v>0.003098973465039706</v>
+      </c>
+      <c r="L49">
+        <v>16</v>
+      </c>
+      <c r="M49">
+        <v>18</v>
+      </c>
+      <c r="N49">
+        <v>0.89</v>
+      </c>
+      <c r="O49">
+        <v>0.11</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>5147</v>
       </c>
     </row>
   </sheetData>
